--- a/HW3_Excel1/HW3_114306079.xlsx
+++ b/HW3_Excel1/HW3_114306079.xlsx
@@ -1,31 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C3235A2-61DC-44C8-A4CD-C8EB22C64F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
+    <workbookView windowWidth="22391" windowHeight="10067"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Exam1</t>
+  </si>
+  <si>
+    <t>Exam2</t>
+  </si>
+  <si>
+    <t>Exam3</t>
+  </si>
+  <si>
+    <t>Exam4</t>
+  </si>
+  <si>
+    <t>Exam5</t>
+  </si>
+  <si>
+    <t>Q1: Exam_Average</t>
+  </si>
+  <si>
+    <t>Midterm</t>
+  </si>
+  <si>
+    <t>Q2: overall score</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
   <si>
     <t>何大美</t>
   </si>
@@ -69,55 +94,73 @@
     <t>許亮亮</t>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exam1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exam2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exam3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exam4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exam5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Midterm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q1: Exam_Average</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q2: overall score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">Q6 answer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>ò</t>
+    </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">Q7 answer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>ò</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">Q8 answer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>ò</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <charset val="136"/>
+      </rPr>
       <t xml:space="preserve">Q5 answer </t>
     </r>
     <r>
@@ -129,11 +172,16 @@
       </rPr>
       <t>ò</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Q6 answer </t>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">Q10 answer </t>
     </r>
     <r>
       <rPr>
@@ -144,40 +192,27 @@
       </rPr>
       <t>ò</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Q7 answer </t>
-    </r>
+    <t>status</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
+        <rFont val="新細明體"/>
+        <charset val="136"/>
       </rPr>
-      <t>ò</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Q8 answer </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t>ò</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Q9 answer </t>
     </r>
     <r>
@@ -189,50 +224,23 @@
       </rPr>
       <t>ò</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Q10 answer </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t>ò</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
-      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -240,22 +248,164 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="PMingLiu"/>
-      <family val="1"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="PMingLiu"/>
-      <family val="1"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -264,7 +414,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +427,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -286,9 +622,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -299,57 +877,97 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="20% - 輔色2" xfId="2" builtinId="34"/>
+    <cellStyle name="千分位[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="千分位" xfId="4" builtinId="3"/>
+    <cellStyle name="20% - 輔色1" xfId="5" builtinId="30"/>
+    <cellStyle name="貨幣" xfId="6" builtinId="4"/>
+    <cellStyle name="備註" xfId="7" builtinId="10"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="8" builtinId="9"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="20% - 輔色5" xfId="10" builtinId="46"/>
+    <cellStyle name="40% - 輔色3" xfId="11" builtinId="39"/>
+    <cellStyle name="60% - 輔色1" xfId="12" builtinId="32"/>
+    <cellStyle name="貨幣[0]" xfId="13" builtinId="7"/>
+    <cellStyle name="警告文字" xfId="14" builtinId="11"/>
+    <cellStyle name="標題" xfId="15" builtinId="15"/>
+    <cellStyle name="說明文字" xfId="16" builtinId="53"/>
+    <cellStyle name="40% - 輔色6" xfId="17" builtinId="51"/>
+    <cellStyle name="60% - 輔色4" xfId="18" builtinId="44"/>
+    <cellStyle name="標題 1" xfId="19" builtinId="16"/>
+    <cellStyle name="60% - 輔色5" xfId="20" builtinId="48"/>
+    <cellStyle name="標題 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 輔色6" xfId="22" builtinId="52"/>
+    <cellStyle name="標題 3" xfId="23" builtinId="18"/>
+    <cellStyle name="標題 4" xfId="24" builtinId="19"/>
+    <cellStyle name="好" xfId="25" builtinId="26"/>
+    <cellStyle name="輸入" xfId="26" builtinId="20"/>
+    <cellStyle name="輸出" xfId="27" builtinId="21"/>
+    <cellStyle name="計算方式" xfId="28" builtinId="22"/>
+    <cellStyle name="檢查儲存格" xfId="29" builtinId="23"/>
+    <cellStyle name="連結的儲存格" xfId="30" builtinId="24"/>
+    <cellStyle name="加總" xfId="31" builtinId="25"/>
+    <cellStyle name="壞" xfId="32" builtinId="27"/>
+    <cellStyle name="中性" xfId="33" builtinId="28"/>
+    <cellStyle name="輔色1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 輔色3" xfId="35" builtinId="38"/>
+    <cellStyle name="40% - 輔色1" xfId="36" builtinId="31"/>
+    <cellStyle name="輔色2" xfId="37" builtinId="33"/>
+    <cellStyle name="20% - 輔色4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 輔色2" xfId="39" builtinId="35"/>
+    <cellStyle name="20% - 輔色6" xfId="40" builtinId="50"/>
+    <cellStyle name="40% - 輔色4" xfId="41" builtinId="43"/>
+    <cellStyle name="60% - 輔色2" xfId="42" builtinId="36"/>
+    <cellStyle name="輔色3" xfId="43" builtinId="37"/>
+    <cellStyle name="40% - 輔色5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 輔色3" xfId="45" builtinId="40"/>
+    <cellStyle name="輔色4" xfId="46" builtinId="41"/>
+    <cellStyle name="輔色5" xfId="47" builtinId="45"/>
+    <cellStyle name="輔色6" xfId="48" builtinId="49"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -367,7 +985,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -383,9 +1001,11 @@
               <a:rPr lang="en-US" altLang="zh-TW"/>
               <a:t>students' overall scores</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -394,26 +1014,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -422,10 +1022,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.8692038495188095E-2"/>
-          <c:y val="0.17171296296296298"/>
-          <c:w val="0.89019685039370078"/>
-          <c:h val="0.64500546806649173"/>
+          <c:x val="0.0986920384951881"/>
+          <c:y val="0.171712962962963"/>
+          <c:w val="0.890196850393701"/>
+          <c:h val="0.645005468066492"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -456,6 +1056,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>工作表1!$B$2:$B$15</c:f>
@@ -512,56 +1115,51 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="General">
                   <c:v>91.7</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="General">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="General">
                   <c:v>81.2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>80.800000000000011</c:v>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>80.8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="General">
                   <c:v>84.7</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>80.800000000000011</c:v>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>80.8</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>77.900000000000006</c:v>
+                <c:pt idx="6" c:formatCode="General">
+                  <c:v>77.9</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="General">
                   <c:v>74.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="General">
                   <c:v>75.2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>77.600000000000009</c:v>
+                <c:pt idx="9" c:formatCode="General">
+                  <c:v>77.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>80.599999999999994</c:v>
+                <c:pt idx="10" c:formatCode="General">
+                  <c:v>80.6</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="General">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>66.900000000000006</c:v>
+                <c:pt idx="12" c:formatCode="General">
+                  <c:v>66.9</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="General">
                   <c:v>55.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-81FD-4825-ADBC-F0E3D1DB5A61}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -605,7 +1203,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-TW" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -617,7 +1215,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1821583968"/>
@@ -664,7 +1261,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-TW" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -676,7 +1273,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1821581088"/>
@@ -715,9 +1311,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-TW"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -729,9 +1324,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -749,7 +1344,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -774,6 +1369,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -782,26 +1378,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -811,6 +1387,8 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr/>
+          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -825,11 +1403,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-6345-4D34-9FE2-9332D43CC681}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -845,26 +1418,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-6345-4D34-9FE2-9332D43CC681}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.4999999999999997E-2"/>
-                  <c:y val="-0.12962962962962971"/>
+                  <c:x val="0.236596958174905"/>
+                  <c:y val="-0.0391062915815392"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
-                <a:xfrm>
-                  <a:off x="2846587" y="1890731"/>
-                  <a:ext cx="1349954" cy="320216"/>
-                </a:xfrm>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF"/>
                 </a:solidFill>
@@ -879,21 +1443,6 @@
                   <a:round/>
                   <a:headEnd type="none" w="med" len="med"/>
                   <a:tailEnd type="none" w="med" len="med"/>
-                  <a:extLst>
-                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
-                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
-                        <a:custGeom>
-                          <a:avLst/>
-                          <a:gdLst/>
-                          <a:ahLst/>
-                          <a:cxnLst/>
-                          <a:rect l="0" t="0" r="0" b="0"/>
-                          <a:pathLst/>
-                        </a:custGeom>
-                        <ask:type/>
-                      </ask:lineSketchStyleProps>
-                    </a:ext>
-                  </a:extLst>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -904,7 +1453,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr lang="zh-TW" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="dk1">
                           <a:lumMod val="65000"/>
@@ -916,7 +1465,6 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-TW"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -926,6 +1474,8 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -942,13 +1492,10 @@
                   </c15:spPr>
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.29526552930883643"/>
-                      <c:h val="0.11673082531350248"/>
+                      <c:w val="0.173320659062104"/>
+                      <c:h val="0.138142385667138"/>
                     </c:manualLayout>
                   </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-6345-4D34-9FE2-9332D43CC681}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -956,15 +1503,11 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.6111111111111108E-2"/>
-                  <c:y val="6.018518518518521E-2"/>
+                  <c:x val="-0.157784114913392"/>
+                  <c:y val="-0.109546073654985"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
-                <a:xfrm>
-                  <a:off x="997710" y="511232"/>
-                  <a:ext cx="759022" cy="320216"/>
-                </a:xfrm>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF"/>
                 </a:solidFill>
@@ -979,21 +1522,6 @@
                   <a:round/>
                   <a:headEnd type="none" w="med" len="med"/>
                   <a:tailEnd type="none" w="med" len="med"/>
-                  <a:extLst>
-                    <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
-                      <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="0">
-                        <a:custGeom>
-                          <a:avLst/>
-                          <a:gdLst/>
-                          <a:ahLst/>
-                          <a:cxnLst/>
-                          <a:rect l="0" t="0" r="0" b="0"/>
-                          <a:pathLst/>
-                        </a:custGeom>
-                        <ask:type/>
-                      </ask:lineSketchStyleProps>
-                    </a:ext>
-                  </a:extLst>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -1004,7 +1532,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr lang="zh-TW" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="dk1">
                           <a:lumMod val="65000"/>
@@ -1016,7 +1544,6 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-TW"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -1026,6 +1553,8 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -1042,13 +1571,10 @@
                   </c15:spPr>
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.16601531058617672"/>
-                      <c:h val="0.11673082531350248"/>
+                      <c:w val="0.166015310586177"/>
+                      <c:h val="0.116730825313502"/>
                     </c:manualLayout>
                   </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-6345-4D34-9FE2-9332D43CC681}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1073,7 +1599,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-TW" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -1085,7 +1611,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1095,6 +1620,8 @@
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
@@ -1107,6 +1634,22 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1130,20 +1673,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="General">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="General">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6345-4D34-9FE2-9332D43CC681}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1170,10 +1708,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26882524059492563"/>
-          <c:y val="0.82928186060075804"/>
-          <c:w val="0.49568285214348207"/>
-          <c:h val="0.14294036162146395"/>
+          <c:x val="0.268825240594926"/>
+          <c:y val="0.829281860600758"/>
+          <c:w val="0.495682852143482"/>
+          <c:h val="0.142940361621464"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1189,7 +1727,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-TW" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1201,7 +1739,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1229,9 +1766,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-TW"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2345,7 +2881,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -2359,20 +2895,14 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="圖表 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0405FCD-478A-496D-4BB1-729E4DA6341F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="圖表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="5083175" y="5042535"/>
+        <a:ext cx="4239260" cy="2693670"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2385,7 +2915,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:colOff>1663065</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
@@ -2395,20 +2925,14 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="圖表 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD481CC-2439-6A81-5767-A788100E6B6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="圖表 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="9533255" y="4080510"/>
+        <a:ext cx="4010025" cy="2693670"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2464,7 +2988,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2497,26 +3021,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2549,23 +3056,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2707,68 +3197,63 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
+    <col min="8" max="8" width="18.6296296296296" customWidth="1"/>
+    <col min="10" max="10" width="16.1296296296296" customWidth="1"/>
     <col min="11" max="11" width="24.25" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2776,7 +3261,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>98</v>
@@ -2818,7 +3303,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>88</v>
@@ -2847,11 +3332,11 @@
         <v>90</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K15" si="2">_xlfn.IFS(J3&gt;=90,"A",J3&gt;=80,"B",J3&gt;=70,"C",J3&gt;=60,"D",J3&lt;60,"F")</f>
+        <f>_xlfn.IFS(J3&gt;=90,"A",J3&gt;=80,"B",J3&gt;=70,"C",J3&gt;=60,"D",J3&lt;60,"F")</f>
         <v>A</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L15" si="3">IF(J3&gt;60,"pass","fail")</f>
+        <f t="shared" ref="L3:L15" si="2">IF(J3&gt;60,"pass","fail")</f>
         <v>pass</v>
       </c>
     </row>
@@ -2860,7 +3345,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>90</v>
@@ -2889,11 +3374,11 @@
         <v>81.2</v>
       </c>
       <c r="K4" t="str">
+        <f>_xlfn.IFS(J4&gt;=90,"A",J4&gt;=80,"B",J4&gt;=70,"C",J4&gt;=60,"D",J4&lt;60,"F")</f>
+        <v>B</v>
+      </c>
+      <c r="L4" t="str">
         <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
     </row>
@@ -2902,7 +3387,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>67</v>
@@ -2921,21 +3406,21 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>81.599999999999994</v>
+        <v>81.6</v>
       </c>
       <c r="I5" s="1">
         <v>80</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>80.800000000000011</v>
+        <v>80.8</v>
       </c>
       <c r="K5" t="str">
+        <f>_xlfn.IFS(J5&gt;=90,"A",J5&gt;=80,"B",J5&gt;=70,"C",J5&gt;=60,"D",J5&lt;60,"F")</f>
+        <v>B</v>
+      </c>
+      <c r="L5" t="str">
         <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
     </row>
@@ -2944,7 +3429,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>78</v>
@@ -2963,7 +3448,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>81.400000000000006</v>
+        <v>81.4</v>
       </c>
       <c r="I6" s="1">
         <v>88</v>
@@ -2973,11 +3458,11 @@
         <v>84.7</v>
       </c>
       <c r="K6" t="str">
+        <f>_xlfn.IFS(J6&gt;=90,"A",J6&gt;=80,"B",J6&gt;=70,"C",J6&gt;=60,"D",J6&lt;60,"F")</f>
+        <v>B</v>
+      </c>
+      <c r="L6" t="str">
         <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
     </row>
@@ -2986,7 +3471,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>87</v>
@@ -3005,21 +3490,21 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>80.599999999999994</v>
+        <v>80.6</v>
       </c>
       <c r="I7" s="1">
         <v>81</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>80.800000000000011</v>
+        <v>80.8</v>
       </c>
       <c r="K7" t="str">
+        <f>_xlfn.IFS(J7&gt;=90,"A",J7&gt;=80,"B",J7&gt;=70,"C",J7&gt;=60,"D",J7&lt;60,"F")</f>
+        <v>B</v>
+      </c>
+      <c r="L7" t="str">
         <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
     </row>
@@ -3028,7 +3513,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>77</v>
@@ -3054,14 +3539,14 @@
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>77.900000000000006</v>
+        <v>77.9</v>
       </c>
       <c r="K8" t="str">
+        <f>_xlfn.IFS(J8&gt;=90,"A",J8&gt;=80,"B",J8&gt;=70,"C",J8&gt;=60,"D",J8&lt;60,"F")</f>
+        <v>C</v>
+      </c>
+      <c r="L8" t="str">
         <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
     </row>
@@ -3070,7 +3555,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>86</v>
@@ -3089,7 +3574,7 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>75.400000000000006</v>
+        <v>75.4</v>
       </c>
       <c r="I9" s="1">
         <v>73</v>
@@ -3099,11 +3584,11 @@
         <v>74.2</v>
       </c>
       <c r="K9" t="str">
+        <f>_xlfn.IFS(J9&gt;=90,"A",J9&gt;=80,"B",J9&gt;=70,"C",J9&gt;=60,"D",J9&lt;60,"F")</f>
+        <v>C</v>
+      </c>
+      <c r="L9" t="str">
         <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
     </row>
@@ -3112,7 +3597,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>67</v>
@@ -3131,7 +3616,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>73.400000000000006</v>
+        <v>73.4</v>
       </c>
       <c r="I10" s="1">
         <v>77</v>
@@ -3141,11 +3626,11 @@
         <v>75.2</v>
       </c>
       <c r="K10" t="str">
+        <f>_xlfn.IFS(J10&gt;=90,"A",J10&gt;=80,"B",J10&gt;=70,"C",J10&gt;=60,"D",J10&lt;60,"F")</f>
+        <v>C</v>
+      </c>
+      <c r="L10" t="str">
         <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
     </row>
@@ -3154,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
         <v>65</v>
@@ -3180,14 +3665,14 @@
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>77.600000000000009</v>
+        <v>77.6</v>
       </c>
       <c r="K11" t="str">
+        <f>_xlfn.IFS(J11&gt;=90,"A",J11&gt;=80,"B",J11&gt;=70,"C",J11&gt;=60,"D",J11&lt;60,"F")</f>
+        <v>C</v>
+      </c>
+      <c r="L11" t="str">
         <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
     </row>
@@ -3196,7 +3681,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
         <v>72</v>
@@ -3207,7 +3692,7 @@
       <c r="E12" s="1">
         <v>62</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>67</v>
       </c>
       <c r="G12" s="1">
@@ -3222,14 +3707,14 @@
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>80.599999999999994</v>
+        <v>80.6</v>
       </c>
       <c r="K12" t="str">
+        <f>_xlfn.IFS(J12&gt;=90,"A",J12&gt;=80,"B",J12&gt;=70,"C",J12&gt;=60,"D",J12&lt;60,"F")</f>
+        <v>B</v>
+      </c>
+      <c r="L12" t="str">
         <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
     </row>
@@ -3238,7 +3723,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
         <v>72</v>
@@ -3267,11 +3752,11 @@
         <v>59</v>
       </c>
       <c r="K13" t="str">
+        <f>_xlfn.IFS(J13&gt;=90,"A",J13&gt;=80,"B",J13&gt;=70,"C",J13&gt;=60,"D",J13&lt;60,"F")</f>
+        <v>F</v>
+      </c>
+      <c r="L13" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
     </row>
@@ -3280,7 +3765,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>81</v>
@@ -3306,14 +3791,14 @@
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>66.900000000000006</v>
+        <v>66.9</v>
       </c>
       <c r="K14" t="str">
+        <f>_xlfn.IFS(J14&gt;=90,"A",J14&gt;=80,"B",J14&gt;=70,"C",J14&gt;=60,"D",J14&lt;60,"F")</f>
+        <v>D</v>
+      </c>
+      <c r="L14" t="str">
         <f t="shared" si="2"/>
-        <v>D</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="3"/>
         <v>pass</v>
       </c>
     </row>
@@ -3322,7 +3807,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <v>59</v>
@@ -3351,29 +3836,29 @@
         <v>55.6</v>
       </c>
       <c r="K15" t="str">
+        <f>_xlfn.IFS(J15&gt;=90,"A",J15&gt;=80,"B",J15&gt;=70,"C",J15&gt;=60,"D",J15&lt;60,"F")</f>
+        <v>F</v>
+      </c>
+      <c r="L15" t="str">
         <f t="shared" si="2"/>
-        <v>F</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="3"/>
         <v>fail</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="3:12">
       <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="L16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="3:13">
@@ -3391,51 +3876,51 @@
       </c>
       <c r="J17">
         <f>AVERAGE(J2:J15)</f>
-        <v>76.871428571428581</v>
+        <v>76.8714285714286</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="18" spans="3:13">
+    <row r="18" spans="12:13">
       <c r="L18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M18">
         <f>COUNTIF(L2:L15,"pass")</f>
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="3:13">
+    <row r="19" spans="12:13">
       <c r="L19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M19">
         <f>COUNTIF(L2:L15,"fail")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="3:13">
+    <row r="24" spans="10:10">
       <c r="J24" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L2:L15 L17">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L15 L17">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/HW3_Excel1/HW3_114306079.xlsx
+++ b/HW3_Excel1/HW3_114306079.xlsx
@@ -232,11 +232,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -258,7 +258,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +338,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
@@ -294,21 +362,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -317,47 +370,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,41 +393,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -429,13 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,19 +447,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,55 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +495,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,19 +561,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,13 +597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,25 +615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,6 +626,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -642,37 +687,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,7 +707,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,173 +726,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1356,9 +1362,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:br>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-            </a:br>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
@@ -1369,7 +1372,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.393536121673004"/>
+          <c:y val="0.0551626591230552"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1503,8 +1513,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.157784114913392"/>
-                  <c:y val="-0.109546073654985"/>
+                  <c:x val="-0.220521757498943"/>
+                  <c:y val="-0.0529689873749284"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -3205,8 +3215,8 @@
   <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>

--- a/HW3_Excel1/HW3_114306079.xlsx
+++ b/HW3_Excel1/HW3_114306079.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22391" windowHeight="10067"/>
+    <workbookView windowWidth="19235" windowHeight="10067"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -231,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -264,6 +264,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
@@ -279,6 +309,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -287,15 +348,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,8 +363,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,86 +400,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,7 +435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,19 +459,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,115 +513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,13 +549,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,6 +630,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -640,30 +664,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,22 +706,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -731,148 +731,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1346,10 +1346,10 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr defTabSz="914400">
               <a:defRPr lang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -1363,23 +1363,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
               <a:t>pass rate</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-TW" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-TW"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.393536121673004"/>
-          <c:y val="0.0551626591230552"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1430,190 +1421,24 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.236596958174905"/>
-                  <c:y val="-0.0391062915815392"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="25000"/>
-                      <a:lumOff val="75000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                  <a:round/>
-                  <a:headEnd type="none" w="med" len="med"/>
-                  <a:tailEnd type="none" w="med" len="med"/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="zh-TW" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="wedgeRectCallout">
-                      <a:avLst>
-                        <a:gd name="adj1" fmla="val -27582"/>
-                        <a:gd name="adj2" fmla="val 10604"/>
-                      </a:avLst>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.173320659062104"/>
-                      <c:h val="0.138142385667138"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.220521757498943"/>
-                  <c:y val="-0.0529689873749284"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF"/>
-                </a:solidFill>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="25000"/>
-                      <a:lumOff val="75000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                  <a:round/>
-                  <a:headEnd type="none" w="med" len="med"/>
-                  <a:tailEnd type="none" w="med" len="med"/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="zh-TW" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="wedgeRectCallout">
-                      <a:avLst>
-                        <a:gd name="adj1" fmla="val 31100"/>
-                        <a:gd name="adj2" fmla="val 4269"/>
-                      </a:avLst>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.166015310586177"/>
-                      <c:h val="0.116730825313502"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="25000"/>
-                    <a:lumOff val="75000"/>
-                  </a:sysClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr lang="zh-TW" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1632,20 +1457,11 @@
             <c:showBubbleSize val="0"/>
             <c:separator>
 </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <a:prstGeom prst="wedgeRectCallout">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c15:spPr>
                 <c15:layout/>
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
                     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1695,12 +1511,12 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -1712,46 +1528,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.268825240594926"/>
-          <c:y val="0.829281860600758"/>
-          <c:w val="0.495682852143482"/>
-          <c:h val="0.142940361621464"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-TW" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2924,25 +2700,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1663065</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>96520</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>50165</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="圖表 9"/>
+        <xdr:cNvPr id="2" name="圖表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9533255" y="4080510"/>
-        <a:ext cx="4010025" cy="2693670"/>
+        <a:off x="9629775" y="4541520"/>
+        <a:ext cx="5234305" cy="3176905"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3215,8 +2991,8 @@
   <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="F11" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
